--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A490"/>
+  <dimension ref="A1:A260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,3419 +443,1809 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hubei Istar</t>
+          <t>Al Fehaiheel</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Volos NFC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Delhi United</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City FC</t>
+          <t>FK Cukaricki</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Academica Vitoria Tabocas</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Siam</t>
+          <t>Belo Jardim FC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chamchuri United</t>
+          <t>Fortuna Koln</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Udon United</t>
+          <t>Budapest Honved FC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>National United</t>
+          <t>Ironi Modiin</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FK Eskhata Khujand</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FC Ravshan</t>
+          <t>Osters IF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Sandvikens IF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Qarabağ FK II</t>
+          <t>Falkenbergs FF</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Neftci II</t>
+          <t>Kayserispor</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad Sub-19</t>
+          <t>Goiás Sub-20</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Aarhus GF</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Radnicki 1923 Sub-19</t>
+          <t>KV RS Waasland Beveren</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Keciorengucu</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Feyenoord</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Valencia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pfk Turan Tovuz</t>
+          <t>FC Otelul Galati</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dacia Buiucani</t>
+          <t>Club Atletico Rentistas II</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FC Milsami</t>
+          <t>1. FC Magdeburg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FC Sfantul Gheorghe</t>
+          <t>Ionikos</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FC Petrocub Hincesti</t>
+          <t>Lierse Kempenzonen</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Lázio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FK Graficar Sub-19</t>
+          <t>Rockmount</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Buriram United</t>
+          <t>SC Braga</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Samut Sakhon</t>
+          <t>Cruzeiro EC MG Sub-20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nonthaburi United</t>
+          <t>Manchester United</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rasisalai United</t>
+          <t>Real Madrid</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Flamengo (F)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Atlético-MG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Botafogo-RJ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Central SC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>EUA (F)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Jamaica (F)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>UA Zacatecas</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Arterivo Wakayama</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Artista Asama</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bijelo Brdo</t>
+          <t>Briobecca Urayasu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FC STK 1914 Samorin</t>
+          <t>Veroskronos Tsuno</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tj Jednota Banova</t>
+          <t>Kunshan FC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Csakvari TK</t>
+          <t>Adelaide United</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Soroksar SC</t>
+          <t>JF Khroub (F)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hapoel Hadera Sub-19</t>
+          <t>Jaguar FC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Malisheva</t>
+          <t>Ihud Bnei Baka</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FC Struga Trim-Lum</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FK Sileks</t>
+          <t>Punjab Police Jalandhar</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Makedonija Gorce Petrov</t>
+          <t>Chhinga Veng</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KF Shkupi</t>
+          <t>Maccabi Ironi Kiryat Ata</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Hapoel Qalansawe</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS Minaur Baia Mare</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FK Radnicki Beograd</t>
+          <t>FC Sioni Bolnisi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rad Beograd Sub-19</t>
+          <t>MS Shikun Hamizrach</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Afrin SC</t>
+          <t>Hapoel Bikat Hayarden</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BG Pathum United F.C</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Bangalore Independents</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Al Qaisoma</t>
+          <t>Maccabi Nujeidat Ahmed</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ha Noi TT</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>SC Maccabi Ashdod</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Middelfart G&amp;Bk</t>
+          <t>Hapoel Sandala Gilboa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tataouine</t>
+          <t>Ironi Beit Dagan</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hapoel Haifa Sub-19</t>
+          <t>Blonianka Blonie</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Al Bashaer</t>
+          <t>KSS Kotwica Kornik</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sohar</t>
+          <t>Samut Prakan City</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FC Chindia Targoviste</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Ihud Bnei Shefa-Amr</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>UPDF FC</t>
+          <t>Hapoel Ironi Baka</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Baroka FC</t>
+          <t>Hapoel Bnei Zalfa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Acireale</t>
+          <t>SK Slovan Bratislava II</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FC Lamezia Terme</t>
+          <t>Hapoel Kaukab</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ASD Lupa Frascati</t>
+          <t>RKS Garbarnia Krakow</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SPAL Sub-19</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>KS Wiaznownica</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AS Slimane</t>
+          <t>Sokol Kleczew</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ES Hammam Sousse</t>
+          <t>Minerul Costesti</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>CS Phoenix Buzias</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Paradou AC</t>
+          <t>SR Municipal Brasov</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Unirea Bascov</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aso Chlef</t>
+          <t>Prachuap FC</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HB Chelghoum Laid</t>
+          <t>Sabah FA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Coton Sport FC de Garoua</t>
+          <t>FC Sozopol</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>OFC Yantra Gabrovo</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jamshedpur</t>
+          <t>FC Litex Lovech</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hapoel Ramat Gan Sub-19</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Maccabi Haifa Sub-19</t>
+          <t>Hapoel Marmorek</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Amman FC</t>
+          <t>Shabab Al Ahli Dubai</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Dubai City FC</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hapoel Raanana Sub-19</t>
+          <t>NK Kustosija</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Maccabi Netanya Sub-19</t>
+          <t>Opatija</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Petro Luanda</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NK Varazdin</t>
+          <t>NK Lokomotiva Zagreb Sub-19</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem Sub-19</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Khaitan</t>
+          <t>Niki Volos</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AL Shabab</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CA Pero Pinheiro</t>
+          <t>FC Kafr Qasim</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Al Shoulla FC</t>
+          <t>Hapoel Afula</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Huesca II</t>
+          <t>Agudat Sport Ashdod</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ajka FC</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CD Nacional Madeira</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Leixões</t>
+          <t>PAOK II</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Alverca Sub-19</t>
+          <t>USM Bel Abbes</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CD Robres</t>
+          <t>FC Venghnuai</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CS Ocna Mures</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rabo Peixe</t>
+          <t>Swansea City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
+          <t>MSP Batna</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FK Radnicki Nis</t>
+          <t>Bengaluru</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TSC Backa Topola</t>
+          <t>Bron Radom</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Future FC</t>
+          <t>Al-Bourj</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AS Real Bamako</t>
+          <t>Polônia (F)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns (F)</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Khor Fakkan</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Atromitos Atenas</t>
+          <t>Barém</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FC Gyori Eto</t>
+          <t>FC Pirin Blagoevgrad</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Szombathelyi Haladas</t>
+          <t>Al Jazira</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Beira Mar SC</t>
+          <t>1 FK Pribram</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FC Viktoria Plzen</t>
+          <t>Al Arabi Kuwait</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Azam FC</t>
+          <t>Holanda (F) Sub-19</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Vejle Boldklub</t>
+          <t>FK Banga Gargzdai</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kazincbarcikai SC</t>
+          <t>SK Sigma Olomouc II</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ramtha SC</t>
+          <t>CS Concordia Chiajna</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MKS Pogon Szczecin</t>
+          <t>Itália (F)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Al Faisaly</t>
+          <t>FC Spartak Trnava</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>TJ Kovo Belusa</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Royal AM FC</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Anorthosis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HNK Sibenik</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Juventus FC</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Estrela Vermelha</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tiszakecskei LC</t>
+          <t>Vera Cruz</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pecsi MFC</t>
+          <t>Maguary PE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sektzia Nes Tziona FC</t>
+          <t>1. FC Köln II</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FK Zalgiris Vilnius</t>
+          <t>SC Vasas Budapest</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ferencvarosi TC</t>
+          <t>Maccabi Shaarayim</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Albânia</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Varbergs BOIS FC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SV Sandhausen</t>
+          <t>Orgryte IS</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Ostersunds FK</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SSV Jahn Regensburg</t>
+          <t>Sivas 4 Eylul</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SpVgg Greuther Furth</t>
+          <t>Cerrado GO Sub-20</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>US Lecce</t>
+          <t>Antuérpia</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CF Panaderia Pulido</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SD Ejea</t>
+          <t>SC Cambuur</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad</t>
+          <t>Bétis</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Casa Pia AC</t>
+          <t>FCSB</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Madureira Sub-20</t>
+          <t>Liverpool Montevideo II</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SV Waldhof Mannheim</t>
+          <t>SV Darmstadt 98</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rot Weiss Essen</t>
+          <t>PAOK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Freiburg II</t>
+          <t>AC Monza</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1. FC Saarbrucken</t>
+          <t>University College Cork</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AEK Atenas</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>América-MG Sub-20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Aston Villa</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>UD Almería</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sevilha FC</t>
+          <t>Sao Paulo Futebol Clube (F)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Cuiabá</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv FC</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>CA Porto Caruaru</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SV Ramlingen-Ehlershausen</t>
+          <t>Alemanha (F)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Paraguai (F)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CD Utrillas</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AC Sparta Praga</t>
+          <t>Fukuyama City</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FC Wil 1900</t>
+          <t>Okinawa SV</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vitoria Guimarães</t>
+          <t>Tokushima Vortis</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Far Rabat</t>
+          <t>Cobaltore Onagawa</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RSB Berkane</t>
+          <t>Zibo Cuju FC</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Sichuan FC</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KVV Thes Sport Tessenderlo</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>CS Constantine (F)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KSC Lokeren-Temse</t>
+          <t>Delhi Tigers FC</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FC Hurth</t>
+          <t>Hapoel Bnei Arrara Ara</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AFC Ajax</t>
+          <t>Shimshon Kfar Qasem</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ujpest FC</t>
+          <t>Dalbir FA</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Chanmari FC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CD Cuarte</t>
+          <t>Hapoel Migdal Haemeq</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CD Binefar</t>
+          <t>MS Tzeirey Taibe</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>UD Barbastro</t>
+          <t>FC Gagra</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Rapid Bucuresti</t>
+          <t>FC Saburtalo Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FC Wohlen</t>
+          <t>Jerusalem FC</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FC Lausanne-Sport</t>
+          <t>Bnei Eilat</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>ASC</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Islândia</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FC Schalke 04</t>
+          <t>FC Holon Yirmiyahu</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sandecja Nowy Sacz</t>
+          <t>Beitar Haifa Yaacov</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>FC Tzeirey Tira</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FC Lugano</t>
+          <t>Sokol Ostroda</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>KS Lipno Steszew</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Raj Pracha Nonthaburi</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Northern Gateway SC</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Wolverhampton</t>
+          <t>MS Tzeirey Kfar Kana</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sport Club Tira</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>MSK Zilina II</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Bromley FC</t>
+          <t>Hapoel Bueine</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>KKS 1925 Kalisz</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Torquay United</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Dundee United FC</t>
+          <t>Podlasie Biala Podlaska</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Motherwell FC</t>
+          <t>MKS Pogon Szczecin II</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Rangers FC</t>
+          <t>Vedita Colonesti</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>St Mirren FC</t>
+          <t>ACS ACB Ineu</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Inter de Milão</t>
+          <t>CS Blejoi</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>CS Tunari</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Wayside Celtic</t>
+          <t>Kuching FA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Dublin University</t>
+          <t>CSKA 1948 II</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Glebe North</t>
+          <t>Minyor Pernik</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>FC Etar Veliko Tarnovo</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Belasitsa Petrich</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AS FAR (F)</t>
+          <t>Beitar Tel Aviv Bat Yam</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Al Nasr SC Dubai</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CA Independiente De Villa Obrera</t>
+          <t>Masfoot</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Juventud Alianza</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FC Guantánamo</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Artemisa</t>
+          <t>NK Hrvace</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>HNK Sibenik Sub-19</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Veria</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Iape MA</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>C.D. Fuerte San Francisco</t>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Vendaval</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Maccabi Ahi Nazareth FC</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Brasiliense</t>
+          <t>AE Larissa</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>CR Temouchent</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Chawnpui FC</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>Reading Sub-21</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Atlético-GO</t>
+          <t>Coventry City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>CA Batna</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Juventude-RS</t>
+          <t>East Bengal Club</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Calor de San Pedro</t>
+          <t>Pelikan Lowicz</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Atlético Junior</t>
+          <t>Al Nejmeh</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Romênia (F)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Csd Comunicaciones</t>
+          <t>Sutjeska Foca</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Shaoxing Shangyu Pterosaur</t>
+          <t>Al Dhafra</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Taian Tiankuang</t>
+          <t>Canadá</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CISF</t>
+          <t>Al Wahda (U.A.E)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>MFk Chrudim</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Kasem Bundit University</t>
+          <t>Noruega (F) Sub-19</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Thonburi United</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ubon Krua Napat FC</t>
+          <t>Lietava Jonava</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>United Bharat FC</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CSKA Pamir Dushanbe</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Istiqlol</t>
+          <t>Áustria (F)</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FC Shirak Gyumri</t>
+          <t>MFK Skalica</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>FK Kapaz II</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Zira FK II</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Crvena Zvezda Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>FK Mladost Lucani Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Bulvarspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Ankaraspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Efeler 09 Sfk</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Thanh Hoa</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Qarabağ FK</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>FC Dinamo Auto</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>FC Sheriff Tiraspol</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>FC Zimbru Chisinau</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>FC Balti</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>AD Camacha</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>FK Cukaricki Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Chiangrai United</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Samut Prakan City</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Inter Bangkok</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Nakhon Ratchasima</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Bodrumspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Karacabey Belediyespor</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Tarsus Idman Yurdu</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Duzcespor</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Bayburt Grup</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Elaziz Belediyespor</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>SC Dnipro-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Song Lam Nghe An</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>HNK Rijeka</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>MSK Puchov</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>MFK Tatran Liptovsky Mikulas</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Kozarmisleny</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Diosgyori Vtk</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Dorogi FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Hapoel Ramat Hassaron Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>FC Prishtina</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Vardar Skopje</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Acadêmia Pandev</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>KF Shkendija Tetovo</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>AFC Hermannstadt</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>FK Radnik Surdulica</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>FK Napredak Krusevac Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Khattab</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Sukhothai</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Adanaspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Hajer Club</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Viettel</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>BK Fremad Amager</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Aalborg BK</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Stade Tunisien</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Hapoel Rishon Lezion Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Al Ittihad Salalah</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Bahla Club</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>FC Arges Pitesti</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>FC Shakhtar Donetsk</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Kampala City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Casric Stars FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Paterno</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Cittanova Calcio</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>AC Arezzo</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>AC Monza Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Wisla Cracóvia</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>US Ben Guerdane</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Esperance Sportive de Tunis</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>ASKO de Kara</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>ES Setif</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>NC Magra</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>CR Belouizdad</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>MC Alger</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Renaissance de Ngoumou</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>S.s.d. Virtus Ciseranobergamo</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Hyderabad FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Hapoel Tel Aviv Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Hapoel Beer Sheva Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Al Aqaba</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Hapoel Bnei Sakhnin Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Maccabi Tel Aviv Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>CD Lunda Sul</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>NK Osijek</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Maccabi Petah Tikva Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Burgan SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Yarmouk</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Vitória Setúbal</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Al Hazm</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>CD Caspe</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Panathinaikos</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>MTK Budapest FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>CD Tondela</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>SC Farense</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>SL Benfica Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>CD Carinena</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Universitatea Craiova</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>AD Sanjoanense</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>FK Kolubara Lazarevac</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>IMT Novi Beograd</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Primeiro de Agosto</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Royal Leopards</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Simba Queens (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>NS Mura</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Asteras Tripolis</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Mosonmagyarovar</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Budafoki MTE</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Pevidem SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>FC Zbrojovka Brno</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Dodoma Jiji FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Kutahyaspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>AC Horsens</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Szeged 2011</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Al Wehdat SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Rakow Czestochowa</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Al Arabi</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Young Africans</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>TP Mazembe</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>ASN Nigelec</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>HNK Gorica</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>FC Copenhaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Mezokövesd SE</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Szentlorinc SE</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Gyirmot SE</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>FK Panevezys</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Paksi FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Catar</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>1. FC Heidenheim</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>1. FC Nurnberg</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Eintracht Braunschweig</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Hamburgo</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>CD Santa Ursula</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>CF Calamocha</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>FK Mladost Gat</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Valadares Gaia FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Botafogo-RJ Sub-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>FSV Zwickau</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>SV Meppen</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>SC Verl</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>TSV 1860 Munchen</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>VfB Oldenburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>OFI Creta</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>Olympiacos</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>Hapoel Hadera</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>Getafe CF</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>Serik Belediyespor</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>Beitar Jerusalem</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>Silkeborg IF</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>1 FC Germ Egestorf/Langreder</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>Maccabi Haifa</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>AD Almudevar</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>1. FC Slovacko</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>FC Sion</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>FC Vizela</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>Djoliba AC</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>US Monastir</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>K Beerschot VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>KV Oostende</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>SV Zulte Waregem</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>KV Mechelen</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>FC Wegberg-Beeck</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Vitesse Arnhem</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Fehervar FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Villarreal CF</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>CDJ Tamarite</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>CF Illueca</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>CF Atletico Monzon</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Farul Constanta</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>Servette FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>BSC Young Boys</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Genk</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>Freiburg</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>Mainz 05</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>Slask Wroclaw</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>FC Winterthur</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>Brighton &amp; Hove Albion</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>Crystal Palace</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>Tottenham</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>Blackburn Rovers</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>Leeds United</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>Sheffield Wednesday</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>Oxford Utd</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>Woking FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>Wrexham FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>Dorking Wanderers</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>Kilmarnock FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>Hearts</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>St Johnstone FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>Bologna FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>Sampdoria</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>Home Farm FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>Finglas United</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>Killester Donnycarney</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>Derby County</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>Bayelsa Queen FC (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>Iraque</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>Atletico Marquesado</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>San Martin de San Juan II</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>FC Las Tunas</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>La Habana</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>Alianza Lima</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>Atlético de Madrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>Maranhao MA</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>CD Municipal Limeno</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>CD San Pablo Municipal</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Goiás</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Vila Nova</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>Bragantino</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>Coban Imperial</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>América-MG</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>Alebrijes de Oaxaca II</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>Millonarios FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>Nigéria</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>Santa Lucía</t>
+          <t>Podkonice</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A260"/>
+  <dimension ref="A1:A258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,126 +443,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Al Fehaiheel</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Volos NFC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>FK Cukaricki</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FK Cukaricki</t>
+          <t>Academica Vitoria Tabocas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Academica Vitoria Tabocas</t>
+          <t>Belo Jardim FC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Belo Jardim FC</t>
+          <t>Fortuna Koln</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fortuna Koln</t>
+          <t>Budapest Honved FC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Budapest Honved FC</t>
+          <t>Ironi Modiin</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ironi Modiin</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Osters IF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Osters IF</t>
+          <t>Sandvikens IF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sandvikens IF</t>
+          <t>Falkenbergs FF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Falkenbergs FF</t>
+          <t>Kayserispor</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Goiás Sub-20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Goiás Sub-20</t>
+          <t>Aarhus GF</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aarhus GF</t>
+          <t>KV RS Waasland Beveren</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KV RS Waasland Beveren</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
     </row>
@@ -572,1678 +572,1664 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Feyenoord</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Valencia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>FC Otelul Galati</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FC Otelul Galati</t>
+          <t>Club Atletico Rentistas II</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Club Atletico Rentistas II</t>
+          <t>1. FC Magdeburg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1. FC Magdeburg</t>
+          <t>Ionikos</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Lierse Kempenzonen</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lierse Kempenzonen</t>
+          <t>Lázio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lázio</t>
+          <t>Rockmount</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rockmount</t>
+          <t>SC Braga</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SC Braga</t>
+          <t>Cruzeiro EC MG Sub-20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cruzeiro EC MG Sub-20</t>
+          <t>Manchester United</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Real Madrid</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Flamengo (F)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Flamengo (F)</t>
+          <t>Atlético-MG</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atlético-MG</t>
+          <t>Botafogo-RJ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Central SC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Central SC</t>
+          <t>EUA (F)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EUA (F)</t>
+          <t>Jamaica (F)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jamaica (F)</t>
+          <t>UA Zacatecas</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UA Zacatecas</t>
+          <t>Arterivo Wakayama</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Arterivo Wakayama</t>
+          <t>Artista Asama</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Artista Asama</t>
+          <t>Briobecca Urayasu</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Briobecca Urayasu</t>
+          <t>Veroskronos Tsuno</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Veroskronos Tsuno</t>
+          <t>Kunshan FC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kunshan FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Adelaide United</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>JF Khroub (F)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JF Khroub (F)</t>
+          <t>Jaguar FC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jaguar FC</t>
+          <t>Ihud Bnei Baka</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ihud Bnei Baka</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv</t>
+          <t>Punjab Police Jalandhar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Punjab Police Jalandhar</t>
+          <t>Chhinga Veng</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chhinga Veng</t>
+          <t>Maccabi Ironi Kiryat Ata</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Kiryat Ata</t>
+          <t>Hapoel Qalansawe</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hapoel Qalansawe</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>FC Sioni Bolnisi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FC Sioni Bolnisi</t>
+          <t>MS Shikun Hamizrach</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MS Shikun Hamizrach</t>
+          <t>Hapoel Bikat Hayarden</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hapoel Bikat Hayarden</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Bangalore Independents</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bangalore Independents</t>
+          <t>Maccabi Nujeidat Ahmed</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Maccabi Nujeidat Ahmed</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>SC Maccabi Ashdod</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SC Maccabi Ashdod</t>
+          <t>Hapoel Sandala Gilboa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hapoel Sandala Gilboa</t>
+          <t>Ironi Beit Dagan</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ironi Beit Dagan</t>
+          <t>Blonianka Blonie</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Blonianka Blonie</t>
+          <t>KSS Kotwica Kornik</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KSS Kotwica Kornik</t>
+          <t>Samut Prakan City</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Samut Prakan City</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kaaro Karungi</t>
+          <t>Ihud Bnei Shefa-Amr</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ihud Bnei Shefa-Amr</t>
+          <t>Hapoel Ironi Baka</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Baka</t>
+          <t>Hapoel Bnei Zalfa</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Zalfa</t>
+          <t>SK Slovan Bratislava II</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SK Slovan Bratislava II</t>
+          <t>Hapoel Kaukab</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hapoel Kaukab</t>
+          <t>RKS Garbarnia Krakow</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RKS Garbarnia Krakow</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>KS Wiaznownica</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KS Wiaznownica</t>
+          <t>Sokol Kleczew</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sokol Kleczew</t>
+          <t>Minerul Costesti</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Minerul Costesti</t>
+          <t>CS Phoenix Buzias</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CS Phoenix Buzias</t>
+          <t>SR Municipal Brasov</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SR Municipal Brasov</t>
+          <t>Unirea Bascov</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>Prachuap FC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Prachuap FC</t>
+          <t>Sabah FA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sabah FA</t>
+          <t>FC Sozopol</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FC Sozopol</t>
+          <t>OFC Yantra Gabrovo</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>OFC Yantra Gabrovo</t>
+          <t>FC Litex Lovech</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FC Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Hapoel Marmorek</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek</t>
+          <t>Shabab Al Ahli Dubai</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Dubai City FC</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dubai City FC</t>
+          <t>NK Kustosija</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Opatija</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Opatija</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NK Sesvete</t>
+          <t>NK Lokomotiva Zagreb Sub-19</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NK Lokomotiva Zagreb Sub-19</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Niki Volos</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv</t>
+          <t>FC Kafr Qasim</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FC Kafr Qasim</t>
+          <t>Hapoel Afula</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>Agudat Sport Ashdod</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Agudat Sport Ashdod</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>PAOK II</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PAOK II</t>
+          <t>USM Bel Abbes</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>USM Bel Abbes</t>
+          <t>FC Venghnuai</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FC Venghnuai</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Swansea City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Swansea City Sub-21</t>
+          <t>MSP Batna</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MSP Batna</t>
+          <t>Bengaluru</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
+          <t>Bron Radom</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Al-Bourj</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Al-Bourj</t>
+          <t>Polônia (F)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Polônia (F)</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Khor Fakkan</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Khor Fakkan</t>
+          <t>Barém</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>FC Pirin Blagoevgrad</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FC Pirin Blagoevgrad</t>
+          <t>Al Jazira</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>1 FK Pribram</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1 FK Pribram</t>
+          <t>Al Arabi Kuwait</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Al Arabi Kuwait</t>
+          <t>Holanda (F) Sub-19</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Holanda (F) Sub-19</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>FK Banga Gargzdai</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FK Banga Gargzdai</t>
+          <t>SK Sigma Olomouc II</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SK Sigma Olomouc II</t>
+          <t>CS Concordia Chiajna</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CS Concordia Chiajna</t>
+          <t>Itália (F)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Itália (F)</t>
+          <t>FC Spartak Trnava</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FC Spartak Trnava</t>
+          <t>TJ Kovo Belusa</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TJ Kovo Belusa</t>
+          <t>Anorthosis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Anorthosis Famagusta</t>
+          <t>Juventus FC</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>Estrela Vermelha</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Juventus FC</t>
+          <t>Vera Cruz</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Estrela Vermelha</t>
+          <t>Maguary PE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Vera Cruz</t>
+          <t>1. FC Köln II</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Maguary PE</t>
+          <t>SC Vasas Budapest</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1. FC Köln II</t>
+          <t>Maccabi Shaarayim</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SC Vasas Budapest</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Maccabi Shaarayim</t>
+          <t>Varbergs BOIS FC</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Orgryte IS</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Varbergs BOIS FC</t>
+          <t>Ostersunds FK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Orgryte IS</t>
+          <t>Sivas 4 Eylul</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ostersunds FK</t>
+          <t>Cerrado GO Sub-20</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sivas 4 Eylul</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cerrado GO Sub-20</t>
+          <t>Antuérpia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Antuérpia</t>
+          <t>SC Cambuur</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Bétis</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SC Cambuur</t>
+          <t>FCSB</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Bétis</t>
+          <t>Liverpool Montevideo II</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>SV Darmstadt 98</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo II</t>
+          <t>PAOK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SV Darmstadt 98</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>AC Monza</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>University College Cork</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Moreirense FC</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>University College Cork</t>
+          <t>América-MG Sub-20</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Moreirense FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>América-MG Sub-20</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sao Paulo Futebol Clube (F)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cádiz CF</t>
+          <t>Cuiabá</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sao Paulo Futebol Clube (F)</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>CA Porto Caruaru</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Alemanha (F)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CA Porto Caruaru</t>
+          <t>Paraguai (F)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Alemanha (F)</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Paraguai (F)</t>
+          <t>Fukuyama City</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Okinawa SV</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fukuyama City</t>
+          <t>Tokushima Vortis</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Okinawa SV</t>
+          <t>Cobaltore Onagawa</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tokushima Vortis</t>
+          <t>Zibo Cuju FC</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cobaltore Onagawa</t>
+          <t>Sichuan FC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Zibo Cuju FC</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sichuan FC</t>
+          <t>CS Constantine (F)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Delhi Tigers FC</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CS Constantine (F)</t>
+          <t>Hapoel Bnei Arrara Ara</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Delhi Tigers FC</t>
+          <t>Shimshon Kfar Qasem</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Arrara Ara</t>
+          <t>Dalbir FA</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Shimshon Kfar Qasem</t>
+          <t>Chanmari FC</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Dalbir FA</t>
+          <t>Hapoel Migdal Haemeq</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chanmari FC</t>
+          <t>MS Tzeirey Taibe</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hapoel Migdal Haemeq</t>
+          <t>FC Gagra</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MS Tzeirey Taibe</t>
+          <t>FC Saburtalo Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FC Gagra</t>
+          <t>Jerusalem FC</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FC Saburtalo Tbilisi</t>
+          <t>Bnei Eilat</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Jerusalem FC</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Bnei Eilat</t>
+          <t>ASC</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>Islândia</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hapoel Raanana</t>
+          <t>FC Holon Yirmiyahu</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Islândia</t>
+          <t>Beitar Haifa Yaacov</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FC Holon Yirmiyahu</t>
+          <t>FC Tzeirey Tira</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Beitar Haifa Yaacov</t>
+          <t>Sokol Ostroda</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FC Tzeirey Tira</t>
+          <t>KS Lipno Steszew</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sokol Ostroda</t>
+          <t>Raj Pracha Nonthaburi</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>KS Lipno Steszew</t>
+          <t>Northern Gateway SC</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Raj Pracha Nonthaburi</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Northern Gateway SC</t>
+          <t>MS Tzeirey Kfar Kana</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ironi Nesher</t>
+          <t>Sport Club Tira</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MS Tzeirey Kfar Kana</t>
+          <t>MSK Zilina II</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sport Club Tira</t>
+          <t>Hapoel Bueine</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MSK Zilina II</t>
+          <t>KKS 1925 Kalisz</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Hapoel Bueine</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>KKS 1925 Kalisz</t>
+          <t>Podlasie Biala Podlaska</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>MKS Pogon Szczecin II</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Podlasie Biala Podlaska</t>
+          <t>Vedita Colonesti</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MKS Pogon Szczecin II</t>
+          <t>ACS ACB Ineu</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Vedita Colonesti</t>
+          <t>CS Blejoi</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ACS ACB Ineu</t>
+          <t>CS Tunari</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CS Blejoi</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CS Tunari</t>
+          <t>Kuching FA</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Ratchaburi FC</t>
+          <t>CSKA 1948 II</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Kuching FA</t>
+          <t>Minyor Pernik</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CSKA 1948 II</t>
+          <t>FC Etar Veliko Tarnovo</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Minyor Pernik</t>
+          <t>Belasitsa Petrich</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FC Etar Veliko Tarnovo</t>
+          <t>Beitar Tel Aviv Bat Yam</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Belasitsa Petrich</t>
+          <t>Al Nasr SC Dubai</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Beitar Tel Aviv Bat Yam</t>
+          <t>Masfoot</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Al Nasr SC Dubai</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Masfoot</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>NK Hrvace</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>HNK Sibenik Sub-19</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NK Hrvace</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HNK Sibenik Sub-19</t>
+          <t>Veria</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Veria</t>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Hapoel Irony Nir Ramat Hasharon</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Hapoel Ramat Gan</t>
+          <t>Maccabi Ahi Nazareth FC</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Maccabi Ahi Nazareth FC</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>AE Larissa</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>CR Temouchent</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AE Larissa</t>
+          <t>Chawnpui FC</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CR Temouchent</t>
+          <t>Reading Sub-21</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Chawnpui FC</t>
+          <t>Coventry City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Reading Sub-21</t>
+          <t>CA Batna</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Coventry City Sub-21</t>
+          <t>East Bengal Club</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CA Batna</t>
+          <t>Pelikan Lowicz</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>East Bengal Club</t>
+          <t>Al Nejmeh</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Pelikan Lowicz</t>
+          <t>Romênia (F)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Al Nejmeh</t>
+          <t>Sutjeska Foca</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Romênia (F)</t>
+          <t>Al Dhafra</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Sutjeska Foca</t>
+          <t>Canadá</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Al Dhafra</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Al Wahda (U.A.E)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>MFk Chrudim</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Al Wahda (U.A.E)</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MFk Chrudim</t>
+          <t>Noruega (F) Sub-19</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Al Qadsia</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Noruega (F) Sub-19</t>
+          <t>Lietava Jonava</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Lietava Jonava</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava</t>
+          <t>Áustria (F)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>MFK Skalica</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
-        <is>
-          <t>Áustria (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>MFK Skalica</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
         <is>
           <t>Podkonice</t>
         </is>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A258"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,1795 +443,1092 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>City FC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FK Cukaricki</t>
+          <t>Dalian Professional</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Academica Vitoria Tabocas</t>
+          <t>AC FAF Sub-19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Belo Jardim FC</t>
+          <t>MO Constantine Sub-19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fortuna Koln</t>
+          <t>WA Boufarik Sub-19</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Budapest Honved FC</t>
+          <t>IB Khemis El khechna Sub-19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ironi Modiin</t>
+          <t>Cong An Nhan Dan Sub-21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Osters IF</t>
+          <t>Khetri Iril Mapal Youth Club</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sandvikens IF</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Falkenbergs FF</t>
+          <t>Estônia Sub-19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>TSV Hartberg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Goiás Sub-20</t>
+          <t>Cracovia Kraków</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aarhus GF</t>
+          <t>Shams Azar</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KV RS Waasland Beveren</t>
+          <t>Termalica Bruk-Bet Nieciecza</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Samut Sakhon</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FC Zorya Luhansk</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Boma Young</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FC Otelul Galati</t>
+          <t>ACSO Filiasi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Club Atletico Rentistas II</t>
+          <t>CSC Ghiroda si Giarmata VII</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1. FC Magdeburg</t>
+          <t>CSM Unirea Alba Iulia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Unirea Bascov</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lierse Kempenzonen</t>
+          <t>Universitatea Craiova II</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lázio</t>
+          <t>AFC Odorheiu Secuiesc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rockmount</t>
+          <t>Metalurgistul Cugir</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SC Braga</t>
+          <t>Bodrumspor Sub-19</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cruzeiro EC MG Sub-20</t>
+          <t>Al Shabab Riyadh Sub-19</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>NK Medimurje Cakovec</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Al Ahli Jeddah Sub-19</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Flamengo (F)</t>
+          <t>República Tcheca Sub-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Atlético-MG</t>
+          <t>Borussia Monchengladbach II</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Botafogo-RJ</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Central SC</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EUA (F)</t>
+          <t>Kataka FC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jamaica (F)</t>
+          <t>Kalamata</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UA Zacatecas</t>
+          <t>East Bengal Club</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Arterivo Wakayama</t>
+          <t>Bélgica</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Artista Asama</t>
+          <t>1. FC Slovacko</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Briobecca Urayasu</t>
+          <t>Barém</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Veroskronos Tsuno</t>
+          <t>MFK Karvina</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kunshan FC</t>
+          <t>Yeni Malatyaspor</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Skive IK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JF Khroub (F)</t>
+          <t>Etsv Weiche Flensburg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jaguar FC</t>
+          <t>FC Astoria Walldorf</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ihud Bnei Baka</t>
+          <t>Offenbacher Kickers</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv</t>
+          <t>TSG Balingen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Punjab Police Jalandhar</t>
+          <t>Bonner SC Sub-19</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chhinga Veng</t>
+          <t>Watanga</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Kiryat Ata</t>
+          <t>Arouca</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hapoel Qalansawe</t>
+          <t>VB 1968</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>Rot-Weiss Oberhausen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FC Sioni Bolnisi</t>
+          <t>Neuchatel Xamax FC</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MS Shikun Hamizrach</t>
+          <t>Brentford Sub-21</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hapoel Bikat Hayarden</t>
+          <t>Huddersfield Town Sub-21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bangalore Independents</t>
+          <t>Espanha Sub-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maccabi Nujeidat Ahmed</t>
+          <t>Lommel SK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Royal Excelsior Virton</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SC Maccabi Ashdod</t>
+          <t>Portugal Sub-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hapoel Sandala Gilboa</t>
+          <t>AC Bellinzona</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ironi Beit Dagan</t>
+          <t>Kilbarrack United</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Blonianka Blonie</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KSS Kotwica Kornik</t>
+          <t>Connah's Quay Nomads FC</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Samut Prakan City</t>
+          <t>Larne FC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kaaro Karungi</t>
+          <t>Ballymena United FC</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ihud Bnei Shefa-Amr</t>
+          <t>Portsmouth FC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Baka</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Zalfa</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SK Slovan Bratislava II</t>
+          <t>St. Francis</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hapoel Kaukab</t>
+          <t>Swords Celtic</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RKS Garbarnia Krakow</t>
+          <t>Granada</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>B SAD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KS Wiaznownica</t>
+          <t>UD Tamaraceite</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sokol Kleczew</t>
+          <t>Arucas CF</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Minerul Costesti</t>
+          <t>Wuhan FC</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CS Phoenix Buzias</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SR Municipal Brasov</t>
+          <t>United Bharat FC</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Prachuap FC</t>
+          <t>JS Saoura Sub-19</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sabah FA</t>
+          <t>CA Batna Sub-19</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FC Sozopol</t>
+          <t>RC Kouba Sub-19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>OFC Yantra Gabrovo</t>
+          <t>Olympique de Medea Sub-19</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FC Litex Lovech</t>
+          <t>Ha Noi TT Sub-21</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Gokulam Kerala</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek</t>
+          <t>Dimapur Road Athletic Organisation</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Panamá</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dubai City FC</t>
+          <t>Eslováquia Sub-19</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Opatija</t>
+          <t>FK Zeleziarne Podbrezova</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NK Sesvete</t>
+          <t>Chooka Talesh</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NK Lokomotiva Zagreb Sub-19</t>
+          <t>ZKS Stal Rzeszow</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Nonthaburi United</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FC Kafr Qasim</t>
+          <t>Wisla Cracóvia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>CSM Deva</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Agudat Sport Ashdod</t>
+          <t>CS Crisul Chisineu Cris</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>ACS Targu Mures 1898</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>AS FC Pucioasa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>Viitorul Daesti</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PAOK II</t>
+          <t>SR Municipal Brasov</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>USM Bel Abbes</t>
+          <t>CS Universitatea din Alba Iulia</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FC Venghnuai</t>
+          <t>Altay SK Sub-19</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Al Ittifaq Dammam Sub-19</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Swansea City Sub-21</t>
+          <t>Opatija</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MSP Batna</t>
+          <t>Jeddah Club Sub-19</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
+          <t>Dinamarca Sub-19</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>FC Schalke 04 II</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Al-Bourj</t>
+          <t>Gaddafi FC</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Polônia (F)</t>
+          <t>UPDF FC</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Airtel Kitara</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Khor Fakkan</t>
+          <t>Panachaiki</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>Odisha</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FC Pirin Blagoevgrad</t>
+          <t>Egito</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>FK Mlada Boleslav</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1 FK Pribram</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Al Arabi Kuwait</t>
+          <t>Slavia Praga</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Holanda (F) Sub-19</t>
+          <t>Pendikspor</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>SC Telstar</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FK Banga Gargzdai</t>
+          <t>Esbjerg FB</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SK Sigma Olomouc II</t>
+          <t>Hamburgo II</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CS Concordia Chiajna</t>
+          <t>Bahlinger SC</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Itália (F)</t>
+          <t>Eintracht Trier</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FC Spartak Trnava</t>
+          <t>FC Rot-Weiss Koblenz</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TJ Kovo Belusa</t>
+          <t>Bayer Leverkusen Sub-19</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Anorthosis Famagusta</t>
+          <t>Cece United</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>Feirense</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Juventus FC</t>
+          <t>BK Skjold</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Estrela Vermelha</t>
+          <t>FC Bocholt</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vera Cruz</t>
+          <t>FC Wil 1900</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Maguary PE</t>
+          <t>Peterborough Sub-21</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1. FC Köln II</t>
+          <t>West Bromwich Albion Sub-21</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SC Vasas Budapest</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Maccabi Shaarayim</t>
+          <t>Japão Sub-21</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Genk II</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Varbergs BOIS FC</t>
+          <t>SL16 FC</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Orgryte IS</t>
+          <t>República Tcheca Sub-21</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ostersunds FK</t>
+          <t>FC Thun</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sivas 4 Eylul</t>
+          <t>Ayrfield United</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cerrado GO Sub-20</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Antuérpia</t>
+          <t>Dungannon Swifts</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Linfield FC</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SC Cambuur</t>
+          <t>Derby County</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Bétis</t>
+          <t>Pontypridd Town</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>De Graafschap</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo II</t>
+          <t>Tolka Rovers</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SV Darmstadt 98</t>
+          <t>Home Farm FC</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Boavista FC</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>UD San Fernando</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>University College Cork</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Moreirense FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>América-MG Sub-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Cádiz CF</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Sao Paulo Futebol Clube (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Cuiabá</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>CA Porto Caruaru</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Alemanha (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Paraguai (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Tampico Madero</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Fukuyama City</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Okinawa SV</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Tokushima Vortis</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Cobaltore Onagawa</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Zibo Cuju FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Sichuan FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Melbourne Victory</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CS Constantine (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Delhi Tigers FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Hapoel Bnei Arrara Ara</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Shimshon Kfar Qasem</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Dalbir FA</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Chanmari FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Hapoel Migdal Haemeq</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>MS Tzeirey Taibe</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>FC Gagra</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>FC Saburtalo Tbilisi</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Jerusalem FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Bnei Eilat</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Sumqayit FK</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>ASC</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Hapoel Raanana</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Islândia</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>FC Holon Yirmiyahu</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Beitar Haifa Yaacov</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>FC Tzeirey Tira</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Sokol Ostroda</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>KS Lipno Steszew</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Raj Pracha Nonthaburi</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Northern Gateway SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Ironi Nesher</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>MS Tzeirey Kfar Kana</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Sport Club Tira</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>MSK Zilina II</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Hapoel Bueine</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>KKS 1925 Kalisz</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Cartusia Kartuzy</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Podlasie Biala Podlaska</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>MKS Pogon Szczecin II</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Vedita Colonesti</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>ACS ACB Ineu</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>CS Blejoi</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>CS Tunari</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Ratchaburi FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Kuching FA</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>CSKA 1948 II</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Minyor Pernik</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>FC Etar Veliko Tarnovo</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Belasitsa Petrich</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Beitar Tel Aviv Bat Yam</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Al Nasr SC Dubai</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Masfoot</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Croatia Zmijavci</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Zrinski Jurjevac</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>NK Hrvace</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>HNK Sibenik Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Ethio Electric SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Veria</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Ironi Tiberias</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Hapoel Irony Nir Ramat Hasharon</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Hapoel Ramat Gan</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Maccabi Petah Tikva</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Maccabi Ahi Nazareth FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Vipers</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Wakiso Giants</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>AE Larissa</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>CR Temouchent</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Chawnpui FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Reading Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Coventry City Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>CA Batna</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>East Bengal Club</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Pelikan Lowicz</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Al Nejmeh</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Romênia (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Sutjeska Foca</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Al Dhafra</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Canadá</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Al Wahda (U.A.E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>MFk Chrudim</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Al Qadsia</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Noruega (F) Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Hawassa Kenema</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Lietava Jonava</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>FC Vysocina Jihlava</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>CSA Steaua Bucuresti</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Áustria (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>MFK Skalica</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Podkonice</t>
+          <t>UD Villa Santa Brigida</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,1092 +443,658 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>San Lorenzo de Alem</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sportivo Biblioteca Atenas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>City FC</t>
+          <t>CS Deportivo La Emilia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dalian Professional</t>
+          <t>CD Cobreloa Calama</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AC FAF Sub-19</t>
+          <t>Managua</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MO Constantine Sub-19</t>
+          <t>Sportivo Baradero</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WA Boufarik Sub-19</t>
+          <t>Millonarios FC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IB Khemis El khechna Sub-19</t>
+          <t>UNAN Managua</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cong An Nhan Dan Sub-21</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Khetri Iril Mapal Youth Club</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estônia Sub-19</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TSV Hartberg</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cracovia Kraków</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shams Azar</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Termalica Bruk-Bet Nieciecza</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Samut Sakhon</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FC Zorya Luhansk</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Boma Young</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACSO Filiasi</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSC Ghiroda si Giarmata VII</t>
+          <t>Punjab</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSM Unirea Alba Iulia</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Universitatea Craiova II</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AFC Odorheiu Secuiesc</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Metalurgistul Cugir</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bodrumspor Sub-19</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Al Shabab Riyadh Sub-19</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NK Medimurje Cakovec</t>
+          <t>Concorde</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Al Ahli Jeddah Sub-19</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>República Tcheca Sub-19</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach II</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kataka FC</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>East Bengal Club</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1. FC Slovacko</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFK Karvina</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Binfield</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Skive IK</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Etsv Weiche Flensburg</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FC Astoria Walldorf</t>
+          <t>San Antonio Belen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Offenbacher Kickers</t>
+          <t>Alumni Villa María</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TSG Balingen</t>
+          <t>Defensores La Esperanza</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bonner SC Sub-19</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Watanga</t>
+          <t>Indigenas de Matagalpa</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Regatas de San Nicolas</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VB 1968</t>
+          <t>Atlético Junior</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Rot-Weiss Oberhausen</t>
+          <t>Real Esteli</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax FC</t>
+          <t>Independiente Santa Fe</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brentford Sub-21</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Huddersfield Town Sub-21</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Espanha Sub-21</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Royal Excelsior Virton</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Portugal Sub-21</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AC Bellinzona</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kilbarrack United</t>
+          <t>Al Sahel</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Connah's Quay Nomads FC</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Larne FC</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ballymena United FC</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Portsmouth FC</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>St. Francis</t>
+          <t>SC Braga (F)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Swords Celtic</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B SAD</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UD Tamaraceite</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Arucas CF</t>
+          <t>Chemal FC</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wuhan FC</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>United Bharat FC</t>
+          <t>Sint-Truidense VV Sub-21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JS Saoura Sub-19</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CA Batna Sub-19</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RC Kouba Sub-19</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Olympique de Medea Sub-19</t>
+          <t>Stoke City II</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ha Noi TT Sub-21</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gokulam Kerala</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dimapur Road Athletic Organisation</t>
+          <t>Billericay Town</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Panamá</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Eslováquia Sub-19</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FK Zeleziarne Podbrezova</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chooka Talesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ZKS Stal Rzeszow</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Nonthaburi United</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>FC Oleksandriya</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Kaaro Karungi</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Wisla Cracóvia</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>CSM Deva</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CS Crisul Chisineu Cris</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>ACS Targu Mures 1898</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>AS FC Pucioasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Viitorul Daesti</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SR Municipal Brasov</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CS Universitatea din Alba Iulia</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Altay SK Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Al Ittifaq Dammam Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Opatija</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Jeddah Club Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Dinamarca Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>FC Schalke 04 II</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Gaddafi FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>UPDF FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Airtel Kitara</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Egito</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>FK Mlada Boleslav</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Sérvia</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Slavia Praga</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SC Telstar</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Esbjerg FB</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Hamburgo II</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bahlinger SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Eintracht Trier</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>FC Rot-Weiss Koblenz</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen Sub-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Cece United</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Feirense</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>BK Skjold</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>FC Bocholt</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>FC Wil 1900</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Peterborough Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>West Bromwich Albion Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Hull City Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Japão Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Genk II</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SL16 FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>República Tcheca Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>FC Thun</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Ayrfield United</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Gornik Zabrze</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Caernarfon Town</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Dungannon Swifts</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Linfield FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Derby County</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Pontypridd Town</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Tolka Rovers</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Home Farm FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Albacete Balompié</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Boavista FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>UD San Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>UD Villa Santa Brigida</t>
+          <t>FC Andorra</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,656 +443,600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>San Lorenzo de Alem</t>
+          <t>CISF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sportivo Biblioteca Atenas</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS Deportivo La Emilia</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CD Cobreloa Calama</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sportivo Baradero</t>
+          <t>Roma</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>Johor Darul Takzim</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNAN Managua</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Atletico River Plate II</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ssu Singjamei</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Punjab</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SL Benfica (F)</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Concorde</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KV Kortrijk Sub-21</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Burnley Sub-21</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Binfield</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Carshalton Athletic</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Shastri FC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Binfield</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Antonio Belen</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alumni Villa María</t>
+          <t>Yokohama F Marinos</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Defensores La Esperanza</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Indigenas de Matagalpa</t>
+          <t>Cerro Largo II</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Regatas de San Nicolas</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Atlético Junior</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Real Esteli</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rising Athletic Union</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>SC Braga (F)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Chemal FC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SC Braga (F)</t>
+          <t>Sint-Truidense VV Sub-21</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>Stoke City II</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sint-Truidense VV Sub-21</t>
+          <t>Billericay Town</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Derby County Sub-21</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
-        <is>
-          <t>Stoke City II</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>UE Engordany II</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>LR Vicenza</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Billericay Town</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Redditch United</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Nuneaton Borough FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Sutton Common Rovers</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Le Mans UC 72</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
         <is>
           <t>FC Andorra</t>
         </is>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,602 +443,773 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CISF</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>CISF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ssu Singjamei</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Real Kashmir FC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Johor Darul Takzim</t>
+          <t>Lernayin Artsakh FC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atletico River Plate II</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>Roma</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Johor Darul Takzim</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>Atletico River Plate II</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SL Benfica (F)</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Marines</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Punjab</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KV Kortrijk Sub-21</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>ES Bafing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Burnley Sub-21</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Carshalton Athletic</t>
+          <t>Concorde</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Binfield</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shastri FC</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rising Athletic Union</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Yokohama F Marinos</t>
+          <t>FC Inter Nouakchott</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cerro Largo II</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Binfield</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>CS Rivadavia de Venado Tuerto</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Shastri FC</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Churchill Brothers</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>FC Van</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SC Braga (F)</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Yokohama F Marinos</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Cerro Largo II</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sint-Truidense VV Sub-21</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Al Sahel</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Derby County Sub-21</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Stoke City II</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>UE Engordany II</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>AS Kigali</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Billericay Town</t>
+          <t>Express FC</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sutton Common Rovers</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>Zira FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SC Braga (F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Club Omnisports de Korhogo</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Suíça</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hawassa Kenema</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Nea Salamina Famagusta</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pafos FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chemal FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CS Comunal 1559 Selimbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sint-Truidense VV Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Uruguai</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Charlton Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Wolverhampton Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Derby County Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Stoke City II</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>UE Engordany II</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LR Vicenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>AS Douanes</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Billericay Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Redditch United</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nuneaton Borough FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sutton Common Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Le Mans UC 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>FC Andorra</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Atletico Carcarana</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,773 +443,602 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>CISF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CISF</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Real Kashmir FC</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ssu Singjamei</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Roma</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh FC</t>
+          <t>Johor Darul Takzim</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Atletico River Plate II</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Johor Darul Takzim</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atletico River Plate II</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Concorde</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SL Benfica (F)</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ES Bafing</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KV Kortrijk Sub-21</t>
+          <t>Binfield</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>Shastri FC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Burnley Sub-21</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FC Inter Nouakchott</t>
+          <t>Yokohama F Marinos</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carshalton Athletic</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Cerro Largo II</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Binfield</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS Rivadavia de Venado Tuerto</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shastri FC</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Churchill Brothers</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rising Athletic Union</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>SC Braga (F)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Yokohama F Marinos</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cerro Largo II</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Chemal FC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>Sint-Truidense VV Sub-21</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Stoke City II</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Billericay Town</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Zira FK</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SC Braga (F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Club Omnisports de Korhogo</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Suíça</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Hawassa Kenema</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Nea Salamina Famagusta</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Pafos FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Chemal FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>CS Comunal 1559 Selimbar</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Sint-Truidense VV Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Uruguai</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Charlton Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Wolverhampton Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Derby County Sub-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Stoke City II</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>UE Engordany II</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>LR Vicenza</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>AS Douanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Billericay Town</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Redditch United</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Nuneaton Borough FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Sutton Common Rovers</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Le Mans UC 72</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
           <t>FC Andorra</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Atletico Carcarana</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,773 +443,787 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Hapoel Petach Tikva (F)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CISF</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Real Kashmir FC</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ssu Singjamei</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh FC</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>FC Inter Nouakchott</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Johor Darul Takzim</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Binfield</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atletico River Plate II</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Kryvbas Kryvyi Rih</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>CS Rivadavia de Venado Tuerto</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>Liaoning Shenyang Urban</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>Heilongjiang Ice City FC</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Beijing Institute</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Sichuan FC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>HB Koge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>FC Noah</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Pfk Turan Tovuz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>SC Braga Sub-23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>US Alessandria Calcio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>ND Gorica</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Ihefu FC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SL Benfica (F)</t>
+          <t>Bright Stars</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ES Bafing</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Maroons FC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Kampala City Council</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Kenkre FC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>NC Magra</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>CR Belouizdad</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Aso Chlef</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KV Kortrijk Sub-21</t>
+          <t>Arba</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>US Biskra</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>MC Alger</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>Morupule Wanderers</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>Equador</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Burnley Sub-21</t>
+          <t>Holanda</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>SL Benfica Sub-23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Besiktas</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FC Inter Nouakchott</t>
+          <t>Estoril Sub-23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carshalton Athletic</t>
+          <t>Carrarese Calcio</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Pontedera</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Asd Torres Calcio</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Binfield</t>
+          <t>JS Saoura</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>ES Setif</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>NK Maribor</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS Rivadavia de Venado Tuerto</t>
+          <t>FC Chindia Targoviste</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>BSG Chemie Leipzig</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shastri FC</t>
+          <t>ASA Tel Aviv University (F)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Churchill Brothers</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rising Athletic Union</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Stoke City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>AS Douanes</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Yokohama F Marinos</t>
+          <t>Billericay Town</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cerro Largo II</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>FC Andorra</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Atletico Carcarana</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Qingdao Youth Island</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Zibo Cuju FC</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>B 93 Kopenhagen</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Alashkert FC</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>FC Sabah</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>CS Marítimo Sub-23</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>FC Shirak Gyumri</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>US Olbia 1905</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>FK Gabala</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>Livingston FC</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SC Braga (F)</t>
+          <t>Young Africans</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Club Omnisports de Korhogo</t>
+          <t>Bul FC</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Uganda Revenue Authority</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>Gaddafi FC</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>UPDF FC</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>Neroca FC</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Usm Alger</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>CS Constantine</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sint-Truidense VV Sub-21</t>
+          <t>El Bayadh</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>Js Kabylie</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Paradou AC</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Derby County Sub-21</t>
+          <t>Security Systems FC</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Stoke City II</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UE Engordany II</t>
+          <t>Catar</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>SC Farense Sub-23</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AS Douanes</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Billericay Town</t>
+          <t>Portimonense Sub-23</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>US Ancona 1905</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sutton Common Rovers</t>
+          <t>Fiorenzuola</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>HB Chelghoum Laid</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>MC Oran</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Atletico Carcarana</t>
+          <t>NK Bravo</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BFC Dynamo</t>
         </is>
       </c>
     </row>

--- a/betano.xlsx
+++ b/betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,787 +443,1165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva (F)</t>
+          <t>Aster Brasil FC Sub-20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>Hapoel Kfar Saba</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Burnley Sub-21</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FC Inter Nouakchott</t>
+          <t>CF Pachuca Sub-20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carshalton Athletic</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Binfield</t>
+          <t>Barretos Sub-20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>AC Guaratingueta SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Comercial Sub-20</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tanabi Sub-20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CS Rivadavia de Venado Tuerto</t>
+          <t>Uniao Suzano Sub-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liaoning Shenyang Urban</t>
+          <t>Al-Shabab Riyadh</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City FC</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Beijing Institute</t>
+          <t>Armee PR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sichuan FC</t>
+          <t>Suécia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>Leicester Sub-21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pfk Turan Tovuz</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SC Braga Sub-23</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>SKA Brasil SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>US Alessandria Calcio</t>
+          <t>US Ancona 1905</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Merstham</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Bologna FC</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ihefu FC</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bright Stars</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Huesca</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maroons FC</t>
+          <t>CD Tondela</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kampala City Council</t>
+          <t>Inter de Minas Sub-20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>Ceilândia Sub-20</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kenkre FC</t>
+          <t>Humble Lions FC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NC Magra</t>
+          <t>Zumbi EC Sub-20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CR Belouizdad</t>
+          <t>Reboceros de La Piedad</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aso Chlef</t>
+          <t>Catanduva FC SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Arba</t>
+          <t>Mirassol Sub-20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>US Biskra</t>
+          <t>Universidad Católica</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Lime Old Road FC</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Morupule Wanderers</t>
+          <t>Deportivo Toluca FC (F)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Club León (F)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Arnett Gardens FC</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SL Benfica Sub-23</t>
+          <t>Ferroviária Sub-20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Santos Laguna (F)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Estoril Sub-23</t>
+          <t>CF Pachuca</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carrarese Calcio</t>
+          <t>PS Barito Putera</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rahmatgonj MFS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Asd Torres Calcio</t>
+          <t>Ario Eslamshahr</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Havadar SC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Leixões Sub-23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FC Chindia Targoviste</t>
+          <t>Al Kiswa</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BSG Chemie Leipzig</t>
+          <t>Al-Arabi SC (Syria)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASA Tel Aviv University (F)</t>
+          <t>Shortet Hamah</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Al Tadamon Latakia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>Perth Glory</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Al Shoulla FC</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Derby County Sub-21</t>
+          <t>Tailândia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Stoke City Sub-21</t>
+          <t>Rhodes</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Al Ain FC (KSA)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AS Douanes</t>
+          <t>Cardiff City Sub-21</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Billericay Town</t>
+          <t>Sampdoria Sub-19</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>Emirados Arabes Unidos</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Peterborough Sub-21</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sutton Common Rovers</t>
+          <t>Millwall FC Sub-21</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Fiorentina Sub-19</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>Juventus Sub-19</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Atletico Carcarana</t>
+          <t>Sassuolo Sub-19</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Foolad Khuzestan FC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Birmingham Sub-21</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Qingdao Youth Island</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Zibo Cuju FC</t>
+          <t>Al Qadisiyah FC</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B 93 Kopenhagen</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Alashkert FC</t>
+          <t>Galvez Sub-20</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Juventus-SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CS Marítimo Sub-23</t>
+          <t>Camboriu Sub-20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Madureira Sub-20</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FC Shirak Gyumri</t>
+          <t>Nova Iguaçu Sub-20</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>US Olbia 1905</t>
+          <t>Operario Ferroviario EC PR Sub-20</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FK Gabala</t>
+          <t>Catar</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Livingston FC</t>
+          <t>Paraná Clube Sub-20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Akritas Chloraka</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Young Africans</t>
+          <t>Karmiotissa Pano Polemidia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bul FC</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>Maccabi Ahi Nazareth FC</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uganda Revenue Authority</t>
+          <t>Hapoel Afula</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gaddafi FC</t>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>UPDF FC</t>
+          <t>Club Puebla Sub-20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Neroca FC</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Usm Alger</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>US Cremonese</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>El Bayadh</t>
+          <t>Athletico-PR Sub-20</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Goiás Sub-20</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Js Kabylie</t>
+          <t>Sport Recife Sub-20</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Paradou AC</t>
+          <t>Náutico Sub-20</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Security Systems FC</t>
+          <t>Figueirense FC Sub-20</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Al Ittihad barém</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>Hapoel Tel Aviv FC</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SC Farense Sub-23</t>
+          <t>Entente Sebkha</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Finlândia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Portimonense Sub-23</t>
+          <t>Chelsea Sub-21</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>US Ancona 1905</t>
+          <t>Aston Villa Sub-21</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>Middlesbrough Sub-21</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fiorenzuola</t>
+          <t>AZ Alkmaar II</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HB Chelghoum Laid</t>
+          <t>Vitória Sub-20</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Pontedera</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Bedford Town</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BFC Dynamo</t>
+          <t>Atalanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>União ABC Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>América-RN Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Cavalier FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fast Clube Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Correcaminos UAT II</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Avaí Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Chapecoense Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CA Talleres de Cordoba</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Blue Jays FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Club Tijuana (F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Necaxa (F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mount Pleasant FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Corinthians Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Atlético San Luis (F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sheikh Jamal Dhanmondi Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Aluminium Arak FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Chadormalu</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Portimonense Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>CS Marítimo Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Doma FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Al Yaqdhah</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Al Nawaeir</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sbekhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Brisbane Roar FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Al Riyadh SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Malásia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Panionios</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Al Faisaly</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Bristol City Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>AC Monza Sub-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hull City Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Queens Park Rangers Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Ascoli Calcio 1898 Sub-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Napoli Sub-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Genoa Sub-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Khosheh Talaei</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Colchester United Sub-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Al Ahli Saudi FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SC Farense Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Mixto Esporte Clube Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Fortaleza Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ituano Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Rio Claro Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Ge Mauaense Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CSA Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Barém</t>
         </is>
       </c>
     </row>
